--- a/data/trans_bre/P16A_n_R2-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P16A_n_R2-Habitat-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>14.55293780642955</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10.168342067099</v>
+        <v>10.16834206709899</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5366146204006774</v>
@@ -649,7 +649,7 @@
         <v>0.6508567625438146</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.3165537553145117</v>
+        <v>0.3165537553145115</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.699771060794539</v>
+        <v>5.093910391786486</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>9.131437058053146</v>
+        <v>9.296111123786744</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>9.718166762120717</v>
+        <v>9.584445968109376</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5.148675327566568</v>
+        <v>5.807789559085798</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.2429785174187802</v>
+        <v>0.2628806754908404</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3107152007408655</v>
+        <v>0.3081020335662405</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3896786594091913</v>
+        <v>0.3851320426430261</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.1486871239778079</v>
+        <v>0.1620912418873373</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>13.38095353925426</v>
+        <v>13.54060738155074</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>19.44682047639919</v>
+        <v>19.41011981010756</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>19.56200791265108</v>
+        <v>19.42669475170709</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>14.49006224463349</v>
+        <v>14.84574809623089</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.8824189914328689</v>
+        <v>0.8995411189970012</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.783595719939528</v>
+        <v>0.7521774663524773</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9744071891739728</v>
+        <v>0.9590133213486594</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.4930778511483217</v>
+        <v>0.5067884412407975</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>10.67389422599816</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>13.92793030885354</v>
+        <v>13.92793030885353</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5826676558405102</v>
@@ -749,7 +749,7 @@
         <v>0.4590985880029511</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.5372969305539671</v>
+        <v>0.5372969305539669</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>6.467376780351628</v>
+        <v>6.664542676536644</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>8.648363983111649</v>
+        <v>8.81951726625582</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>7.008563390111719</v>
+        <v>6.650038057299145</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>10.00422869108324</v>
+        <v>9.761936975102886</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.3173424371653433</v>
+        <v>0.3297999344479684</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3167713646671327</v>
+        <v>0.330535484809131</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2753396271714716</v>
+        <v>0.2587946022574646</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.3514331006877497</v>
+        <v>0.3425497344508564</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>14.41525269669527</v>
+        <v>14.46414012601091</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>16.84469198608567</v>
+        <v>17.03809062608151</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>14.88800461021333</v>
+        <v>14.74374404884835</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>17.8909703202104</v>
+        <v>17.991980668449</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.9006330923004001</v>
+        <v>0.8790204112046485</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.7459818767055715</v>
+        <v>0.7650429985950945</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.7149706494544875</v>
+        <v>0.6868630529671713</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.7595192584913112</v>
+        <v>0.7545389779295244</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>9.181559012014686</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7.477023836737956</v>
+        <v>7.477023836737962</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9049976923024945</v>
@@ -849,7 +849,7 @@
         <v>0.4344577933901447</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.2472110184351403</v>
+        <v>0.2472110184351404</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>10.48892229961873</v>
+        <v>10.45167004462531</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>12.46693114616983</v>
+        <v>12.48789427932291</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>4.844451195276265</v>
+        <v>4.60767030005043</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.749979608181927</v>
+        <v>2.325463340633864</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.569396367451928</v>
+        <v>0.5653902494015508</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5059224078741079</v>
+        <v>0.5049320340811416</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.20777613002264</v>
+        <v>0.1901552463034787</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.08312194483978434</v>
+        <v>0.0680793528263833</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>19.10969540450745</v>
+        <v>19.76969255586419</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>21.63123993141426</v>
+        <v>21.88926484457636</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>13.53540402408412</v>
+        <v>13.24594567192167</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>12.05132806167698</v>
+        <v>12.04921826347721</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.320600382598319</v>
+        <v>1.411562264503675</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.087010486338276</v>
+        <v>1.101891432432241</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7074205988181598</v>
+        <v>0.6891917477622614</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.4350271087593</v>
+        <v>0.4297136383953297</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>13.20331310478294</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>10.47149734362228</v>
+        <v>10.47149734362227</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.8083481184586282</v>
@@ -949,7 +949,7 @@
         <v>0.5385628743342525</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.3345433820892487</v>
+        <v>0.3345433820892485</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>10.45580046710196</v>
+        <v>10.45909207773453</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>10.41411584321376</v>
+        <v>10.79622679769728</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>9.014517922416452</v>
+        <v>8.663072092864613</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>6.361968769495403</v>
+        <v>6.703070738498954</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.5314118845223526</v>
+        <v>0.5150407609964095</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3609904228098129</v>
+        <v>0.370881815998762</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.333670023986251</v>
+        <v>0.3270603694477731</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.1869522703251846</v>
+        <v>0.2005427333748406</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>18.05074816501357</v>
+        <v>17.88312184102357</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>19.28217544340487</v>
+        <v>19.37418768142</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>17.32123889524888</v>
+        <v>17.19975138027797</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>14.0935088743455</v>
+        <v>14.66842302353336</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.123039124451012</v>
+        <v>1.098843835740745</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.7897105294679396</v>
+        <v>0.8010898056618705</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.7726194585504031</v>
+        <v>0.7676354334095639</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.4867191481764891</v>
+        <v>0.5110928236677648</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>11.86054887031918</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>10.81819443988607</v>
+        <v>10.81819443988606</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7058846547349035</v>
@@ -1049,7 +1049,7 @@
         <v>0.516824172411681</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.3651769577316733</v>
+        <v>0.3651769577316729</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>10.16188233719176</v>
+        <v>10.23889058916731</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>12.67089030022892</v>
+        <v>12.39226578777334</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>9.624203744394165</v>
+        <v>9.625889667303126</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>8.57750254593391</v>
+        <v>8.784766303800041</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.5535379614622813</v>
+        <v>0.5603435707946853</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4761297536630178</v>
+        <v>0.4648462225806367</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3986000940702745</v>
+        <v>0.4056987177459561</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.2751264809482274</v>
+        <v>0.286597139811078</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>14.23762231606501</v>
+        <v>14.31309110133251</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>16.99430887716425</v>
+        <v>17.19280705209707</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>14.22587762900643</v>
+        <v>13.97954277316719</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>12.77333588060637</v>
+        <v>12.82075922100675</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.8739907865159598</v>
+        <v>0.8673580734810314</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.709580481732678</v>
+        <v>0.7147960926917554</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.6411376141005697</v>
+        <v>0.6365925248251281</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.4472201595848452</v>
+        <v>0.4511017236849507</v>
       </c>
     </row>
     <row r="19">
